--- a/biology/Histoire de la zoologie et de la botanique/Friedrich_Hustedt/Friedrich_Hustedt.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Friedrich_Hustedt/Friedrich_Hustedt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Friedrich Hustedt, né en 1886 à Brême et mort le 1er avril 1968, est un botaniste et professeur allemand, essentiellement connu pour ses recherches et travaux sur la systématique et les diatomées[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Friedrich Hustedt, né en 1886 à Brême et mort le 1er avril 1968, est un botaniste et professeur allemand, essentiellement connu pour ses recherches et travaux sur la systématique et les diatomées,.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il nait et grandit à Brême, en Allemagne. Il enseigne la botanique pendant 32 ans, et devient le professeur principal de l'école située dans la Hauffstraße, à Brême.
-Hustedt continue ses travaux sur la systématique en tant que loisir, mais son importance dans la communauté scientifique grandit ; il quitte l'enseignement en 1939 pour se consacrer à ses recherches à plein-temps[1]. Il classifie et réunit plus de 2 000 diatomées, ce qui fait de sa collection privée la plus grande au monde[3]. Elle est hébergée à l’Institut Alfred-Wegener pour la recherche polaire et marine de Bremerhaven[3].
+Hustedt continue ses travaux sur la systématique en tant que loisir, mais son importance dans la communauté scientifique grandit ; il quitte l'enseignement en 1939 pour se consacrer à ses recherches à plein-temps. Il classifie et réunit plus de 2 000 diatomées, ce qui fait de sa collection privée la plus grande au monde. Elle est hébergée à l’Institut Alfred-Wegener pour la recherche polaire et marine de Bremerhaven.
 </t>
         </is>
       </c>
